--- a/Fase 2/Evidencias Proyecto/Evidencia documentacion/Evidencias Fase 2 Grupo 20.xlsx
+++ b/Fase 2/Evidencias Proyecto/Evidencia documentacion/Evidencias Fase 2 Grupo 20.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Melipilla\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Melipilla\Desktop\Nueva carpeta\Poryecto-APT-MMM-Grupo-20\Fase 2\Evidencias Proyecto\Evidencia documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DDBCEC1-1FC3-4CCC-B68E-3DFBBD20E3B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{743047AE-6794-4B79-984D-58767E9300B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{43063247-4789-4FEF-BDFE-8796A8315E47}"/>
   </bookViews>
@@ -258,23 +258,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>612322</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>81643</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>463826</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>165653</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>546276</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>85088</xdr:rowOff>
+      <xdr:colOff>254936</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>49696</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2">
+        <xdr:cNvPr id="2" name="Imagen 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B15EEAF-BA78-4E1E-B00D-538D328B84E6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42A16E2A-D99A-4293-9707-1DD2B3186DCE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -290,8 +290,52 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2898322" y="653143"/>
-          <a:ext cx="4505954" cy="6878010"/>
+          <a:off x="3511826" y="546653"/>
+          <a:ext cx="3601110" cy="5242891"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>438979</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>124241</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>318489</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>8282</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04B70951-4268-48BF-8ABC-C12E01B86E1F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3486979" y="124241"/>
+          <a:ext cx="3689510" cy="463824"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -603,7 +647,7 @@
   <dimension ref="L3:Q17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
